--- a/LAB4/LAB4_CheckList.xlsx
+++ b/LAB4/LAB4_CheckList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93143AC8-6C9E-40D4-909B-DB2DA80A142A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE382D27-5E5B-4538-ADE6-8D6A2D984D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>Результаты тестирования</t>
   </si>
@@ -166,12 +166,168 @@
   <si>
     <t>2.8</t>
   </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Просмотр формы в режиме добавления проекта</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Форма ввода персоны</t>
+  </si>
+  <si>
+    <t>Поле Фамилия. Кириллица</t>
+  </si>
+  <si>
+    <t>Поле Фамилия. Латиница</t>
+  </si>
+  <si>
+    <t>Поле Фамилия. Цифры</t>
+  </si>
+  <si>
+    <t>Поле Фамилия. Пустое значение</t>
+  </si>
+  <si>
+    <t>Поле Имя. Кириллица</t>
+  </si>
+  <si>
+    <t>Поле Имя. Латиница</t>
+  </si>
+  <si>
+    <t>Поле Имя. Цифры</t>
+  </si>
+  <si>
+    <t>Поле Имя. Пустое значение</t>
+  </si>
+  <si>
+    <t>Поле Отчество. Кириллица</t>
+  </si>
+  <si>
+    <t>Поле Отчество. Латиница</t>
+  </si>
+  <si>
+    <t>Поле Отчество. Цифры</t>
+  </si>
+  <si>
+    <t>Поле Отчество. Пустое значение</t>
+  </si>
+  <si>
+    <t>Поле Должность. Кириллица</t>
+  </si>
+  <si>
+    <t>Поле Должность. Латиница</t>
+  </si>
+  <si>
+    <t>Поле Должность. Цифры</t>
+  </si>
+  <si>
+    <t>Поле Должность. Пустое значение</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>Not Passed</t>
+  </si>
+  <si>
+    <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
+  </si>
+  <si>
+    <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
+  </si>
+  <si>
+    <t>Приложение запрашивает подтверждение при сохранении/отмене введенных данных</t>
+  </si>
+  <si>
+    <t>Приложение запрашивает подтверждение при удалении/изменении сотрудника</t>
+  </si>
+  <si>
+    <t>При возникновении ошибок приложение оповещает пользователя всплывающим окном</t>
+  </si>
+  <si>
+    <t>При нажатии кнопок в верху страницы приложение переходит по выбранному адресу</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +424,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -477,27 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -529,6 +677,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ввод " xfId="2" builtinId="20"/>
@@ -813,38 +987,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:G229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="88.140625" customWidth="1"/>
     <col min="3" max="3" width="78.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -858,7 +1032,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -866,358 +1040,654 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="23"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="23"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="23"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="23"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="23"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="23"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="23"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="23"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="23"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="23"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="23"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="23"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="23"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="23"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="23"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="23"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="23"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="23"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="23"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="23"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="23"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="23"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="23"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="23"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="23"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="23"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="23"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="23"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="23"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
